--- a/ARIA_imaging_results_2023_2024.xlsx
+++ b/ARIA_imaging_results_2023_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d72a128368553cb/Documents/Emory/Research/aria_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{3DF8231C-75D5-EC4A-8D34-F6E2B0098DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727D7C2F-616D-46DC-91E2-C129E69A8D9E}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{3DF8231C-75D5-EC4A-8D34-F6E2B0098DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F636824E-1BA7-4C4D-9DAC-06B137183CA3}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -18943,9 +18943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73683D2F-0EC3-4975-9ADA-953264452D29}">
   <dimension ref="A1:AH367"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R193" sqref="R193"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G1" zoomScale="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O366" sqref="O366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29225,7 +29225,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -29271,7 +29271,7 @@
       <c r="P201" t="s">
         <v>1996</v>
       </c>
-      <c r="R201" t="s">
+      <c r="R201" s="2" t="s">
         <v>745</v>
       </c>
     </row>
@@ -29475,7 +29475,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -29524,7 +29524,7 @@
       <c r="Q206" t="s">
         <v>2000</v>
       </c>
-      <c r="R206" t="s">
+      <c r="R206" s="2" t="s">
         <v>588</v>
       </c>
     </row>
@@ -31078,7 +31078,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -31124,7 +31124,7 @@
       <c r="P238" t="s">
         <v>1996</v>
       </c>
-      <c r="R238" t="s">
+      <c r="R238" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -31930,7 +31930,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -31976,7 +31976,7 @@
       <c r="P255" t="s">
         <v>1996</v>
       </c>
-      <c r="R255" t="s">
+      <c r="R255" s="2" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -32333,7 +32333,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -32379,11 +32379,11 @@
       <c r="P263" t="s">
         <v>1996</v>
       </c>
-      <c r="R263" t="s">
+      <c r="R263" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -32429,11 +32429,11 @@
       <c r="P264" t="s">
         <v>1996</v>
       </c>
-      <c r="R264" t="s">
+      <c r="R264" s="2" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -32479,7 +32479,7 @@
       <c r="P265" t="s">
         <v>1996</v>
       </c>
-      <c r="R265" t="s">
+      <c r="R265" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -32636,7 +32636,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -32682,11 +32682,11 @@
       <c r="P269" t="s">
         <v>1996</v>
       </c>
-      <c r="R269" t="s">
+      <c r="R269" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -32732,7 +32732,7 @@
       <c r="P270" t="s">
         <v>1996</v>
       </c>
-      <c r="R270" t="s">
+      <c r="R270" s="2" t="s">
         <v>1975</v>
       </c>
     </row>
@@ -33139,7 +33139,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -33185,11 +33185,11 @@
       <c r="P279" t="s">
         <v>1996</v>
       </c>
-      <c r="R279" t="s">
+      <c r="R279" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -33235,7 +33235,7 @@
       <c r="P280" t="s">
         <v>1996</v>
       </c>
-      <c r="R280" t="s">
+      <c r="R280" s="2" t="s">
         <v>1706</v>
       </c>
     </row>
@@ -33289,7 +33289,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -33335,11 +33335,11 @@
       <c r="P282" t="s">
         <v>1996</v>
       </c>
-      <c r="R282" t="s">
+      <c r="R282" s="2" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -33385,7 +33385,7 @@
       <c r="P283" t="s">
         <v>1996</v>
       </c>
-      <c r="R283" t="s">
+      <c r="R283" s="2" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -33489,7 +33489,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -33535,7 +33535,7 @@
       <c r="P286" t="s">
         <v>1996</v>
       </c>
-      <c r="R286" t="s">
+      <c r="R286" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -33589,7 +33589,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -33635,7 +33635,7 @@
       <c r="P288" t="s">
         <v>1996</v>
       </c>
-      <c r="R288" t="s">
+      <c r="R288" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -33839,7 +33839,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -33885,7 +33885,7 @@
       <c r="P293" t="s">
         <v>1996</v>
       </c>
-      <c r="R293" t="s">
+      <c r="R293" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -33989,7 +33989,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -34035,7 +34035,7 @@
       <c r="P296" t="s">
         <v>1996</v>
       </c>
-      <c r="R296" t="s">
+      <c r="R296" s="2" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -34189,7 +34189,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -34235,7 +34235,7 @@
       <c r="P300" t="s">
         <v>1996</v>
       </c>
-      <c r="R300" t="s">
+      <c r="R300" s="2" t="s">
         <v>924</v>
       </c>
     </row>
@@ -34489,7 +34489,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -34535,11 +34535,11 @@
       <c r="P306" t="s">
         <v>1996</v>
       </c>
-      <c r="R306" t="s">
+      <c r="R306" s="2" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -34585,11 +34585,11 @@
       <c r="P307" t="s">
         <v>1996</v>
       </c>
-      <c r="R307" t="s">
+      <c r="R307" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -34635,7 +34635,7 @@
       <c r="P308" t="s">
         <v>1996</v>
       </c>
-      <c r="R308" t="s">
+      <c r="R308" s="2" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -35139,7 +35139,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -35185,7 +35185,7 @@
       <c r="P319" t="s">
         <v>1996</v>
       </c>
-      <c r="R319" t="s">
+      <c r="R319" s="2" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -35489,7 +35489,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -35535,11 +35535,11 @@
       <c r="P326" t="s">
         <v>1996</v>
       </c>
-      <c r="R326" t="s">
+      <c r="R326" s="2" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -35585,7 +35585,7 @@
       <c r="P327" t="s">
         <v>1996</v>
       </c>
-      <c r="R327" t="s">
+      <c r="R327" s="2" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -35839,7 +35839,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -35885,7 +35885,7 @@
       <c r="P333" t="s">
         <v>1997</v>
       </c>
-      <c r="R333" t="s">
+      <c r="R333" s="2" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -36039,7 +36039,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -36085,7 +36085,7 @@
       <c r="P337" t="s">
         <v>1996</v>
       </c>
-      <c r="R337" t="s">
+      <c r="R337" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -36589,7 +36589,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -36635,11 +36635,11 @@
       <c r="P348" t="s">
         <v>1996</v>
       </c>
-      <c r="R348" t="s">
+      <c r="R348" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -36685,7 +36685,7 @@
       <c r="P349" t="s">
         <v>1996</v>
       </c>
-      <c r="R349" t="s">
+      <c r="R349" s="2" t="s">
         <v>688</v>
       </c>
     </row>

--- a/ARIA_imaging_results_2023_2024.xlsx
+++ b/ARIA_imaging_results_2023_2024.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{3DF8231C-75D5-EC4A-8D34-F6E2B0098DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F636824E-1BA7-4C4D-9DAC-06B137183CA3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -18944,8 +18944,8 @@
   <dimension ref="A1:AH367"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O366" sqref="O366"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
